--- a/Tasks/02_要件定義/ACSYSTEM_要件定義.xlsx
+++ b/Tasks/02_要件定義/ACSYSTEM_要件定義.xlsx
@@ -5,30 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSYSTEM\submission\02_要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSystem\ACSystem\Tasks\02_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5676D67-B090-469A-8C91-FFF4FDD3D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C3526-CEAD-442C-B6C2-16EF83566035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="目次" sheetId="2" r:id="rId2"/>
     <sheet name="要件定義" sheetId="3" r:id="rId3"/>
     <sheet name="画面遷移" sheetId="4" r:id="rId4"/>
+    <sheet name="画面イメージ" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>学校法人　八文字学園　水戸電子専門学校</t>
     <rPh sb="0" eb="2">
@@ -647,7 +659,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>functions</t>
+    <t>Functions</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1171,17 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1201,6 +1202,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1213,7 +1227,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1268,6 +1282,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1277,52 +1303,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="16" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="17" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="18" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,7 +1324,22 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="16" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="17" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="18" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,6 +1397,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,24 +1535,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
@@ -2280,6 +2295,2021 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECDD93E-7A06-3520-FCDA-F648A0EF160E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="714375"/>
+          <a:ext cx="0" cy="488156"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>671989</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>230981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF63652-42D6-4341-BF44-DCF3C59B9C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1357789" y="1183005"/>
+          <a:ext cx="704374" cy="476"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6951A01D-95AE-4455-8B0F-BBED3F59BAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2268682" y="954882"/>
+          <a:ext cx="16886" cy="7929345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>229943</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>674760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B5BC37-CA86-47C4-B5F1-00BE22493056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2282148" y="1013763"/>
+          <a:ext cx="444817" cy="1906"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>259556</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>235744</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764DDE58-55FE-475B-A109-B13429ED8018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="1207293"/>
+          <a:ext cx="2381" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243365</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2E127C-FF8B-41C2-A94B-DD7BC22C1550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2986565" y="1421130"/>
+          <a:ext cx="432910" cy="2858"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D11B0E3-0D4D-49F7-9EC2-A5F4328EB561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2277341" y="2190750"/>
+          <a:ext cx="458932" cy="4331"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>272634</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3025EF1C-CC6A-4FC0-8B26-2E4DF5AAF07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3011072" y="2458641"/>
+          <a:ext cx="1209" cy="295917"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>256443</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5224D269-BFCA-4164-830A-DCB1FEC4EB4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2994881" y="2738437"/>
+          <a:ext cx="362681" cy="1357"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41671</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607218</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91687D47-5204-4ED6-9A19-D117A9C91A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4833937" y="2744391"/>
+          <a:ext cx="565547" cy="5953"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10783</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>672142</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F59859F-DB2B-4D73-A172-F8DA7A627E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6875972" y="2710132"/>
+          <a:ext cx="2720915" cy="3595"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409754</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>675736</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336593CF-CFB5-408D-BC37-EC8DDA67ECDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7274943" y="2940170"/>
+          <a:ext cx="265982" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420537</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420538</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAEF4B5-A80A-4B42-A591-2072EFBAD3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7285726" y="2713726"/>
+          <a:ext cx="1" cy="244416"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>351234</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>187098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835B2162-8851-4B73-8025-CDD329EB23E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3774281" y="3423047"/>
+          <a:ext cx="2551" cy="133520"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>646340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8F273A-B8A2-475F-AFDF-747FF9FA50EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3807279" y="3535816"/>
+          <a:ext cx="7833632" cy="8845"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281421</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286766</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>199159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15435EA-2854-43B5-9ACA-3718F6417C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5753966" y="3392384"/>
+          <a:ext cx="5345" cy="880877"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>641539</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E8B1ED-4A94-47E9-AC24-ADEEBEA9AC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5763986" y="4288971"/>
+          <a:ext cx="5850353" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170057</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173146</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175037</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5037EC34-DFBE-4CB8-AC43-CB00A406D814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2913257" y="5107405"/>
+          <a:ext cx="3089" cy="344482"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>153866</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>583845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>163131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F23F037-2B44-4312-B178-D8B49DF1F976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2897066" y="5437123"/>
+          <a:ext cx="429979" cy="2858"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381377B0-CFDD-49F9-B125-B1554C9931B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4848225" y="5429250"/>
+          <a:ext cx="2619375" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403004</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>668986</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A210644A-82AE-48EC-AE3C-93C73539DE39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5216614" y="5658017"/>
+          <a:ext cx="265982" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413787</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413788</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>188660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE018B7E-8758-43BA-AAA7-25D17E8B7480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5227397" y="5431836"/>
+          <a:ext cx="1" cy="244153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591553</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593066</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71453E2C-349A-4256-9D54-4006E587D1D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4024147" y="6024681"/>
+          <a:ext cx="1513" cy="136017"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593078</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>634491</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F0AE51-C266-412A-8ECA-F2BDF7EC05C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4027091" y="6194737"/>
+          <a:ext cx="5535834" cy="8283"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BE1141-E5C4-4A5C-9741-CF6790E81524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4848225" y="7315200"/>
+          <a:ext cx="2619375" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403004</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>668986</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線コネクタ 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CA67CB-6EC4-4C27-A4A9-70A7D0731CAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5203604" y="7571613"/>
+          <a:ext cx="265982" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413787</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413788</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>150560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A46A67-88FB-472F-A9DD-9C646E73C17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5214387" y="7344270"/>
+          <a:ext cx="1" cy="245315"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577610</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>169473</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC51DBB-4D67-4B8F-85E6-31F0AD89C530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4005943" y="7772400"/>
+          <a:ext cx="667" cy="376302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577622</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619035</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>155515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B687C4F3-70B5-430A-90B1-241B16052575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4006622" y="8072032"/>
+          <a:ext cx="5527813" cy="8283"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF28F7B4-1214-4A25-ABD0-4DFC011314F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4838700" y="9029700"/>
+          <a:ext cx="3352800" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393479</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>659461</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線コネクタ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41595299-0EBD-4C60-9D2C-D2655C016DD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5194079" y="9286113"/>
+          <a:ext cx="265982" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404262</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404263</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>179135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAD2B8C-A9D6-491E-866E-4BBA43542175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5204862" y="9058770"/>
+          <a:ext cx="1" cy="245315"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>670214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FC57D1-2B74-45C2-A766-EBD2E72936F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2266950" y="4914900"/>
+          <a:ext cx="460664" cy="4331"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>670214</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E26FAB-C157-428D-9ED4-C5A3EDBFED5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2266950" y="6877050"/>
+          <a:ext cx="460664" cy="4331"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679739</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>147206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601483E1-90E6-4A37-935B-42F36BA4D8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2276475" y="8782050"/>
+          <a:ext cx="460664" cy="4331"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>150668</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>178475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B995D8-2ACC-3E67-D79A-C0E72719CC8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="150668" y="3665393"/>
+          <a:ext cx="4564207" cy="2942457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185304</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>680603</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894AF129-7447-D569-8022-78EDD30D1317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4985904" y="4417870"/>
+          <a:ext cx="3924299" cy="1809216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>115168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155671</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>225138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680550E2-41EA-0278-9444-6B47B201BF5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="115168"/>
+          <a:ext cx="6889846" cy="3443720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>437285</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520094</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF0A74F-CB74-CE8E-508F-9DBCD4E97DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7295285" y="2459183"/>
+          <a:ext cx="4197609" cy="1655617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>435553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>498846</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B0E178-D463-CE14-78AF-B3DFD9C72AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7293553" y="207820"/>
+          <a:ext cx="4178093" cy="2114549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2545,7 +4575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -2555,75 +4585,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="60"/>
-      <c r="B1" s="62" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="64"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="68"/>
       <c r="AG1" s="3"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="71"/>
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
@@ -2699,30 +4729,30 @@
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
@@ -2736,28 +4766,28 @@
     <row r="6" spans="1:33" ht="12.75" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
@@ -2771,28 +4801,28 @@
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -2806,28 +4836,28 @@
     <row r="8" spans="1:33" ht="12.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
@@ -2841,28 +4871,28 @@
     <row r="9" spans="1:33" ht="12.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -2876,28 +4906,28 @@
     <row r="10" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -2987,25 +5017,25 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -3024,23 +5054,23 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="10"/>
@@ -3059,23 +5089,23 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -3094,23 +5124,23 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -3129,23 +5159,23 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -3342,603 +5372,603 @@
     </row>
     <row r="23" spans="1:33" ht="12.75" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="39">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="58">
         <v>44858</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="36" t="s">
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="37"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="49"/>
       <c r="AG23" s="11"/>
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="37"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="49"/>
       <c r="AG24" s="11"/>
     </row>
     <row r="25" spans="1:33" ht="12.75" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="37"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="49"/>
       <c r="AG25" s="11"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="37"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="49"/>
       <c r="AG26" s="11"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="37"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="49"/>
       <c r="AG27" s="11"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="37"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="49"/>
       <c r="AG28" s="11"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="37"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="50"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="49"/>
       <c r="AG29" s="11"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="37"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="49"/>
       <c r="AG30" s="11"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="37"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="50"/>
+      <c r="AC31" s="50"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="49"/>
       <c r="AG31" s="11"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="37"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="49"/>
       <c r="AG32" s="11"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="37"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="50"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="49"/>
       <c r="AG33" s="11"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="37"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="49"/>
       <c r="AG34" s="14"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="37"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="49"/>
       <c r="AG35" s="14"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="37"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="49"/>
       <c r="AG36" s="14"/>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="37"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="49"/>
       <c r="AG37" s="14"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="37"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="49"/>
       <c r="AG38" s="14"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="38"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="37"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="49"/>
       <c r="AG39" s="14"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
@@ -3977,88 +6007,88 @@
       <c r="AG40" s="19"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="54" t="s">
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="55" t="s">
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="54" t="s">
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="W41" s="43"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="55" t="s">
+      <c r="W41" s="52"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="75"/>
-      <c r="AG41" s="76"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="80"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="59" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="59" t="s">
+      <c r="I42" s="62"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="W42" s="46"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="77"/>
-      <c r="AG42" s="78"/>
+      <c r="W42" s="62"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="56"/>
+      <c r="AB42" s="56"/>
+      <c r="AC42" s="56"/>
+      <c r="AD42" s="56"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="81"/>
+      <c r="AG42" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -4099,6 +6129,8 @@
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
@@ -4106,6 +6138,7 @@
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F36:I36"/>
     <mergeCell ref="J23:AD23"/>
     <mergeCell ref="J24:AD24"/>
     <mergeCell ref="J25:AD25"/>
@@ -4116,9 +6149,6 @@
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
     <mergeCell ref="J36:AD36"/>
     <mergeCell ref="J37:AD37"/>
     <mergeCell ref="J38:AD38"/>
@@ -4164,75 +6194,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="82"/>
-      <c r="B1" s="84" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="86"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="98"/>
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="89"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="101"/>
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="12.75" customHeight="1">
@@ -4246,21 +6276,21 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
@@ -4283,19 +6313,19 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
@@ -4318,19 +6348,19 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
       <c r="X5" s="28"/>
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
@@ -5708,90 +7738,90 @@
       <c r="AG44" s="35"/>
     </row>
     <row r="45" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="97" t="s">
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="103" t="s">
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="94"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="104" t="s">
+      <c r="I45" s="106"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
-      <c r="U45" s="105"/>
-      <c r="V45" s="103" t="s">
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="117"/>
+      <c r="V45" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="W45" s="94"/>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="104" t="s">
+      <c r="W45" s="106"/>
+      <c r="X45" s="107"/>
+      <c r="Y45" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="105"/>
-      <c r="AF45" s="108"/>
-      <c r="AG45" s="109"/>
+      <c r="Z45" s="116"/>
+      <c r="AA45" s="116"/>
+      <c r="AB45" s="116"/>
+      <c r="AC45" s="116"/>
+      <c r="AD45" s="116"/>
+      <c r="AE45" s="117"/>
+      <c r="AF45" s="120"/>
+      <c r="AG45" s="121"/>
     </row>
     <row r="46" spans="1:33" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A46" s="96"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="79" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="80"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="106"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="106"/>
-      <c r="R46" s="106"/>
-      <c r="S46" s="106"/>
-      <c r="T46" s="106"/>
-      <c r="U46" s="107"/>
-      <c r="V46" s="79" t="s">
+      <c r="I46" s="92"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="W46" s="80"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="106"/>
-      <c r="Z46" s="106"/>
-      <c r="AA46" s="106"/>
-      <c r="AB46" s="106"/>
-      <c r="AC46" s="106"/>
-      <c r="AD46" s="106"/>
-      <c r="AE46" s="107"/>
-      <c r="AF46" s="110"/>
-      <c r="AG46" s="111"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="93"/>
+      <c r="Y46" s="118"/>
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="118"/>
+      <c r="AB46" s="118"/>
+      <c r="AC46" s="118"/>
+      <c r="AD46" s="118"/>
+      <c r="AE46" s="119"/>
+      <c r="AF46" s="122"/>
+      <c r="AG46" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5825,27 +7855,27 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" thickBot="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="N1" s="113" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="N1" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" thickTop="1"/>
     <row r="3" spans="1:18">
@@ -5921,777 +7951,496 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8A0EB8-1395-411E-9087-C6200167F760}">
   <dimension ref="B2:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="115"/>
+      <c r="C2" s="127"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="116"/>
+      <c r="C3" s="128"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" spans="2:19" ht="19.5">
-      <c r="D5" s="123"/>
-      <c r="E5" s="129" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="121"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="S5" s="38"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="115" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="121"/>
+      <c r="G6" s="127"/>
+      <c r="S6" s="38"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="116" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="116"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="121"/>
+      <c r="G7" s="128"/>
+      <c r="S7" s="38"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="D8" s="123"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="117" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="121"/>
+      <c r="G8" s="129"/>
+      <c r="S8" s="38"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="D9" s="123"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="121"/>
+      <c r="D9" s="39"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="2:19" ht="19.5">
-      <c r="D10" s="123"/>
-      <c r="E10" s="127" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="120"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="121"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="115" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="127"/>
+      <c r="I12" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="115" t="s">
-        <v>45</v>
+      <c r="J12" s="127"/>
+      <c r="O12" s="127" t="s">
+        <v>48</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="130" t="s">
+      <c r="P12" s="127"/>
+      <c r="S12" s="38"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="I13" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="128"/>
+      <c r="L13" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="131"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="115" t="s">
-        <v>48</v>
+      <c r="M13" s="132"/>
+      <c r="O13" s="128" t="s">
+        <v>49</v>
       </c>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="121"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="116" t="s">
-        <v>43</v>
+      <c r="P13" s="128"/>
+      <c r="S13" s="38"/>
+    </row>
+    <row r="14" spans="2:19" ht="19.5">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="129" t="s">
+        <v>47</v>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="116" t="s">
-        <v>46</v>
+      <c r="G14" s="129"/>
+      <c r="I14" s="129" t="s">
+        <v>44</v>
       </c>
-      <c r="J13" s="116"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="116" t="s">
+      <c r="J14" s="129"/>
+      <c r="L14" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="116"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="116" t="s">
-        <v>49</v>
+      <c r="M14" s="128"/>
+      <c r="Q14" s="44" t="s">
+        <v>58</v>
       </c>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="121"/>
-    </row>
-    <row r="14" spans="2:19" ht="19.5">
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="117" t="s">
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="127"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="128"/>
+    </row>
+    <row r="17" spans="4:19">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="S17" s="38"/>
+    </row>
+    <row r="18" spans="4:19">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="131" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" s="132"/>
+    </row>
+    <row r="19" spans="4:19">
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="128"/>
+    </row>
+    <row r="20" spans="4:19">
+      <c r="D20" s="39"/>
+      <c r="S20" s="38"/>
+    </row>
+    <row r="21" spans="4:19" ht="19.5">
+      <c r="D21" s="39"/>
+      <c r="E21" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37"/>
+      <c r="S21" s="38"/>
+    </row>
+    <row r="22" spans="4:19">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="P22" s="38"/>
+      <c r="S22" s="38"/>
+    </row>
+    <row r="23" spans="4:19">
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="127"/>
+      <c r="L23" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="134"/>
+      <c r="P23" s="38"/>
+      <c r="S23" s="38"/>
+    </row>
+    <row r="24" spans="4:19">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="128" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="128"/>
+      <c r="I24" s="131" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="132"/>
+      <c r="L24" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="136"/>
+      <c r="P24" s="38"/>
+      <c r="S24" s="38"/>
+    </row>
+    <row r="25" spans="4:19" ht="19.5">
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="117" t="s">
-        <v>47</v>
+      <c r="G25" s="129"/>
+      <c r="I25" s="128" t="s">
+        <v>65</v>
       </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="129" t="s">
+      <c r="J25" s="128"/>
+      <c r="N25" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="R14" s="119"/>
-      <c r="S14" s="120"/>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="115"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="S16" s="116"/>
-    </row>
-    <row r="17" spans="4:19">
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="121"/>
-    </row>
-    <row r="18" spans="4:19">
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="130" t="s">
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+      <c r="S25" s="38"/>
+    </row>
+    <row r="26" spans="4:19">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="131"/>
-    </row>
-    <row r="19" spans="4:19">
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="116" t="s">
+      <c r="P26" s="132"/>
+      <c r="S26" s="38"/>
+    </row>
+    <row r="27" spans="4:19">
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="116"/>
-    </row>
-    <row r="20" spans="4:19">
-      <c r="D20" s="123"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="121"/>
-    </row>
-    <row r="21" spans="4:19" ht="19.5">
-      <c r="D21" s="123"/>
-      <c r="E21" s="129" t="s">
-        <v>59</v>
+      <c r="P27" s="128"/>
+      <c r="S27" s="38"/>
+    </row>
+    <row r="28" spans="4:19">
+      <c r="D28" s="39"/>
+      <c r="S28" s="38"/>
+    </row>
+    <row r="29" spans="4:19" ht="19.5">
+      <c r="D29" s="39"/>
+      <c r="E29" s="44" t="s">
+        <v>66</v>
       </c>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="121"/>
-    </row>
-    <row r="22" spans="4:19">
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="121"/>
-    </row>
-    <row r="23" spans="4:19">
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="115" t="s">
-        <v>60</v>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="37"/>
+      <c r="S29" s="38"/>
+    </row>
+    <row r="30" spans="4:19">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="P30" s="38"/>
+      <c r="S30" s="38"/>
+    </row>
+    <row r="31" spans="4:19">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="127" t="s">
+        <v>67</v>
       </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="130" t="s">
-        <v>64</v>
+      <c r="G31" s="127"/>
+      <c r="L31" s="133" t="s">
+        <v>69</v>
       </c>
-      <c r="J23" s="131"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="134" t="s">
-        <v>62</v>
+      <c r="M31" s="134"/>
+      <c r="P31" s="38"/>
+      <c r="S31" s="38"/>
+    </row>
+    <row r="32" spans="4:19">
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="128" t="s">
+        <v>68</v>
       </c>
-      <c r="M23" s="135"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="121"/>
-    </row>
-    <row r="24" spans="4:19">
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="116" t="s">
-        <v>61</v>
+      <c r="G32" s="128"/>
+      <c r="I32" s="131" t="s">
+        <v>71</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="116" t="s">
-        <v>65</v>
+      <c r="J32" s="132"/>
+      <c r="L32" s="135" t="s">
+        <v>70</v>
       </c>
-      <c r="J24" s="116"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="132" t="s">
-        <v>63</v>
+      <c r="M32" s="136"/>
+      <c r="P32" s="38"/>
+      <c r="S32" s="38"/>
+    </row>
+    <row r="33" spans="4:19" ht="19.5">
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="I33" s="128" t="s">
+        <v>72</v>
       </c>
-      <c r="M24" s="133"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="121"/>
-    </row>
-    <row r="25" spans="4:19" ht="19.5">
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="117" t="s">
+      <c r="J33" s="128"/>
+      <c r="N33" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" s="36"/>
+      <c r="P33" s="37"/>
+      <c r="S33" s="38"/>
+    </row>
+    <row r="34" spans="4:19">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="131" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="132"/>
+      <c r="S34" s="38"/>
+    </row>
+    <row r="35" spans="4:19">
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="128"/>
+      <c r="S35" s="38"/>
+    </row>
+    <row r="36" spans="4:19">
+      <c r="D36" s="39"/>
+      <c r="S36" s="38"/>
+    </row>
+    <row r="37" spans="4:19" ht="19.5">
+      <c r="D37" s="39"/>
+      <c r="E37" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="M37" s="36"/>
+      <c r="N37" s="37"/>
+      <c r="S37" s="38"/>
+    </row>
+    <row r="38" spans="4:19">
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="134"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="131" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="132"/>
+      <c r="S38" s="38"/>
+    </row>
+    <row r="39" spans="4:19">
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="117"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="129" t="s">
-        <v>58</v>
+      <c r="G39" s="130"/>
+      <c r="I39" s="133" t="s">
+        <v>75</v>
       </c>
-      <c r="O25" s="119"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="125"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="121"/>
-    </row>
-    <row r="26" spans="4:19">
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="121"/>
-    </row>
-    <row r="27" spans="4:19">
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="116" t="s">
+      <c r="J39" s="134"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="121"/>
-    </row>
-    <row r="28" spans="4:19">
-      <c r="D28" s="123"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="121"/>
-    </row>
-    <row r="29" spans="4:19" ht="19.5">
-      <c r="D29" s="123"/>
-      <c r="E29" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="125"/>
-      <c r="S29" s="121"/>
-    </row>
-    <row r="30" spans="4:19">
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="125"/>
-      <c r="S30" s="121"/>
-    </row>
-    <row r="31" spans="4:19">
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="131"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" s="135"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="121"/>
-    </row>
-    <row r="32" spans="4:19">
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="116"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="116"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="132" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="133"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="125"/>
-      <c r="S32" s="121"/>
-    </row>
-    <row r="33" spans="4:19" ht="19.5">
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="129" t="s">
-        <v>58</v>
-      </c>
-      <c r="O33" s="119"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="125"/>
-      <c r="S33" s="121"/>
-    </row>
-    <row r="34" spans="4:19">
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="125"/>
-      <c r="R34" s="125"/>
-      <c r="S34" s="121"/>
-    </row>
-    <row r="35" spans="4:19">
-      <c r="D35" s="123"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="125"/>
-      <c r="S35" s="121"/>
-    </row>
-    <row r="36" spans="4:19">
-      <c r="D36" s="123"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="125"/>
-      <c r="Q36" s="125"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="121"/>
-    </row>
-    <row r="37" spans="4:19" ht="19.5">
-      <c r="D37" s="123"/>
-      <c r="E37" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="121"/>
-    </row>
-    <row r="38" spans="4:19">
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="135"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="J38" s="135"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="121"/>
-    </row>
-    <row r="39" spans="4:19">
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="132" t="s">
+      <c r="N39" s="137"/>
+      <c r="S39" s="38"/>
+    </row>
+    <row r="40" spans="4:19">
+      <c r="E40" s="40"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="J39" s="133"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="126"/>
-      <c r="P39" s="126"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="122"/>
-    </row>
-    <row r="41" spans="4:19">
-      <c r="D41" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="115"/>
-    </row>
-    <row r="42" spans="4:19">
-      <c r="D42" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="116"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="43"/>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
@@ -6699,79 +8448,2003 @@
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="C102" s="115" t="s">
+      <c r="C102" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="115"/>
+      <c r="D102" s="127"/>
     </row>
     <row r="103" spans="2:4">
-      <c r="C103" s="116" t="s">
+      <c r="C103" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="116"/>
+      <c r="D103" s="128"/>
     </row>
     <row r="104" spans="2:4">
-      <c r="C104" s="117" t="s">
+      <c r="C104" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="117"/>
+      <c r="D104" s="129"/>
     </row>
     <row r="105" spans="2:4">
-      <c r="C105" s="118" t="s">
+      <c r="C105" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="118"/>
+      <c r="D105" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="O35:P35"/>
-    <mergeCell ref="I38:J38"/>
     <mergeCell ref="I39:J39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="O26:P26"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R16:S16"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2E7A0-8ED4-426D-8837-C085B971232A}">
+  <dimension ref="A1:AH53"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="47"/>
+      <c r="AH16" s="47"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="47"/>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="47"/>
+      <c r="X36" s="47"/>
+      <c r="Y36" s="47"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
+      <c r="AC36" s="47"/>
+      <c r="AD36" s="47"/>
+      <c r="AE36" s="47"/>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47"/>
+      <c r="AH36" s="47"/>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="47"/>
+      <c r="V39" s="47"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="47"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="47"/>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="47"/>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="47"/>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="47"/>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="47"/>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="47"/>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="47"/>
+      <c r="AH53" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>